--- a/Writeup/weak-scaling.xlsx
+++ b/Writeup/weak-scaling.xlsx
@@ -108,11 +108,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Strong Scaling: Comparison</a:t>
+              <a:t>Weak Scaling: Comparison</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Run Times of Varying Sizes of n</a:t>
+              <a:t> of Run Times of Varying Sizes of n and OpenMP Threads</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -155,10 +155,119 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Original</c:v>
+            <c:v>Unlimited</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.4905100000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7613800000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.9703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.897500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.4373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.884399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.032399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.436199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.414100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0F6A-4DB2-8C4E-3B1585DD7316}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -174,10 +283,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$21</c:f>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
@@ -210,108 +319,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$21</c:f>
+              <c:f>Sheet1!$C$1:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.2540300000000002</c:v>
+                  <c:v>4.9510800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5426899999999999</c:v>
+                  <c:v>5.5944599999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17191</c:v>
+                  <c:v>7.0036899999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5474100000000002</c:v>
+                  <c:v>7.87758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8468</c:v>
+                  <c:v>8.5161599999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2099799999999998</c:v>
+                  <c:v>9.7369299999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6577999999999999</c:v>
+                  <c:v>11.337300000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1334</c:v>
+                  <c:v>12.498200000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6315400000000002</c:v>
+                  <c:v>13.473599999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5923600000000002</c:v>
+                  <c:v>14.5404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7394600000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.3841199999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.2797000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.8161500000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.1633</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.1486</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.9125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.7376</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.042</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.565899999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17.754999999999999</c:v>
+                  <c:v>17.041399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,15 +368,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F6A-4DB2-8C4E-3B1585DD7316}"/>
+              <c16:uniqueId val="{00000014-E506-47A8-815C-A58426DC69E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Vectorized</c:v>
+            <c:v>2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -343,10 +392,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$21</c:f>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
@@ -379,108 +428,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$21</c:f>
+              <c:f>Sheet1!$D$1:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.6842300000000003</c:v>
+                  <c:v>4.8119800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3788600000000004</c:v>
+                  <c:v>5.4432200000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4589600000000003</c:v>
+                  <c:v>6.79535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1752500000000001</c:v>
+                  <c:v>7.5906799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8309899999999999</c:v>
+                  <c:v>8.2608099999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0048700000000004</c:v>
+                  <c:v>9.4553999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.432600000000001</c:v>
+                  <c:v>11.013999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.3864</c:v>
+                  <c:v>12.007400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.392200000000001</c:v>
+                  <c:v>13.068099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.375</c:v>
+                  <c:v>14.267200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.680099999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.084399999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.461500000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.734300000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.3963</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24.372299999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.085899999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.904699999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31.062100000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33.7425</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>36.131799999999998</c:v>
+                  <c:v>16.530899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -488,20 +477,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F6A-4DB2-8C4E-3B1585DD7316}"/>
+              <c16:uniqueId val="{00000015-E506-47A8-815C-A58426DC69E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>OpenMP</c:v>
+            <c:v>3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -512,10 +501,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$21</c:f>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
@@ -548,108 +537,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$21</c:f>
+              <c:f>Sheet1!$E$1:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.4905100000000004</c:v>
+                  <c:v>4.7893400000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7613800000000008</c:v>
+                  <c:v>5.3667400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0725</c:v>
+                  <c:v>6.75807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.083</c:v>
+                  <c:v>7.4848100000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.9703</c:v>
+                  <c:v>8.1686599999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.897500000000001</c:v>
+                  <c:v>9.4510299999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.4373</c:v>
+                  <c:v>10.8535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.884399999999999</c:v>
+                  <c:v>11.9716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.032399999999999</c:v>
+                  <c:v>12.937799999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.436199999999999</c:v>
+                  <c:v>14.041600000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.414100000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30.549499999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.3797</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>38.1128</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36.748199999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>48.053400000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46.509500000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>48.784199999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>54.901499999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>54.764499999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>70.759600000000006</c:v>
+                  <c:v>16.3447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +586,1003 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0F6A-4DB2-8C4E-3B1585DD7316}"/>
+              <c16:uniqueId val="{00000016-E506-47A8-815C-A58426DC69E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.7250800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4270300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7044800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4421400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1022599999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2908399999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.799200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.797800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.8611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.853999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.254200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-E506-47A8-815C-A58426DC69E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.7327399999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5593399999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8932399999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8080699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5758100000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7006999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.933400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.1751</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.8399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.5547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.8002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-E506-47A8-815C-A58426DC69E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.1537100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8449299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3824500000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1637500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8640299999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.341100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.819800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.1676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.760200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-E506-47A8-815C-A58426DC69E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$1:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.2639800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9471400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5331599999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3980899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1828099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.4068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.029400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.4832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.5641</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.094799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-E506-47A8-815C-A58426DC69E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$1:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.3235099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0362099999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5522200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5184599999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1379800000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.6074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.3353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.216900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.0426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.9915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.331299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-E506-47A8-815C-A58426DC69E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.5098099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2926200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8016500000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5635300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2838799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.6267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.011200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.8855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.576699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-E506-47A8-815C-A58426DC69E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.3197200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1461199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8762699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7235800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8139900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.898899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.086399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.083600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.2225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.010300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-E506-47A8-815C-A58426DC69E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>11</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$1:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.4553799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4680299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0969300000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0346600000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8498800000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.3085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.100099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.254300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.066700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.805099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.688800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-E506-47A8-815C-A58426DC69E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>12</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$1:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.6904300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5227899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9326699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8893500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.314500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.3346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.7315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.759899999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.7211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-E506-47A8-815C-A58426DC69E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1543,13 +2468,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -1837,306 +2762,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D21"/>
+      <selection activeCell="C1" sqref="C1:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>200</v>
       </c>
       <c r="B1">
-        <v>2.2540300000000002</v>
+        <v>8.4905100000000004</v>
       </c>
       <c r="C1">
-        <v>4.6842300000000003</v>
+        <v>4.9510800000000001</v>
       </c>
       <c r="D1">
-        <v>8.4905100000000004</v>
+        <v>4.8119800000000001</v>
+      </c>
+      <c r="E1">
+        <v>4.7893400000000002</v>
+      </c>
+      <c r="F1">
+        <v>4.7250800000000002</v>
+      </c>
+      <c r="G1">
+        <v>4.7327399999999997</v>
+      </c>
+      <c r="H1">
+        <v>5.1537100000000002</v>
+      </c>
+      <c r="I1">
+        <v>5.2639800000000001</v>
+      </c>
+      <c r="J1">
+        <v>5.3235099999999997</v>
+      </c>
+      <c r="K1">
+        <v>5.5098099999999999</v>
+      </c>
+      <c r="L1">
+        <v>5.3197200000000002</v>
+      </c>
+      <c r="M1">
+        <v>5.4553799999999999</v>
+      </c>
+      <c r="N1">
+        <v>5.6904300000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>210</v>
       </c>
       <c r="B2">
-        <v>2.5426899999999999</v>
+        <v>9.7613800000000008</v>
       </c>
       <c r="C2">
-        <v>5.3788600000000004</v>
+        <v>5.5944599999999998</v>
       </c>
       <c r="D2">
-        <v>9.7613800000000008</v>
+        <v>5.4432200000000002</v>
+      </c>
+      <c r="E2">
+        <v>5.3667400000000001</v>
+      </c>
+      <c r="F2">
+        <v>5.4270300000000002</v>
+      </c>
+      <c r="G2">
+        <v>5.5593399999999997</v>
+      </c>
+      <c r="H2">
+        <v>5.8449299999999997</v>
+      </c>
+      <c r="I2">
+        <v>5.9471400000000001</v>
+      </c>
+      <c r="J2">
+        <v>6.0362099999999996</v>
+      </c>
+      <c r="K2">
+        <v>6.2926200000000003</v>
+      </c>
+      <c r="L2">
+        <v>6.1461199999999998</v>
+      </c>
+      <c r="M2">
+        <v>6.4680299999999997</v>
+      </c>
+      <c r="N2">
+        <v>6.5227899999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>220</v>
       </c>
       <c r="B3">
-        <v>3.17191</v>
+        <v>10.0725</v>
       </c>
       <c r="C3">
-        <v>6.4589600000000003</v>
+        <v>7.0036899999999997</v>
       </c>
       <c r="D3">
-        <v>10.0725</v>
+        <v>6.79535</v>
+      </c>
+      <c r="E3">
+        <v>6.75807</v>
+      </c>
+      <c r="F3">
+        <v>6.7044800000000002</v>
+      </c>
+      <c r="G3">
+        <v>6.8932399999999996</v>
+      </c>
+      <c r="H3">
+        <v>7.3824500000000004</v>
+      </c>
+      <c r="I3">
+        <v>7.5331599999999996</v>
+      </c>
+      <c r="J3">
+        <v>7.5522200000000002</v>
+      </c>
+      <c r="K3">
+        <v>7.8016500000000004</v>
+      </c>
+      <c r="L3">
+        <v>7.8762699999999999</v>
+      </c>
+      <c r="M3">
+        <v>8.0969300000000004</v>
+      </c>
+      <c r="N3">
+        <v>7.9326699999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>230</v>
       </c>
       <c r="B4">
-        <v>3.5474100000000002</v>
+        <v>13.083</v>
       </c>
       <c r="C4">
-        <v>7.1752500000000001</v>
+        <v>7.87758</v>
       </c>
       <c r="D4">
-        <v>13.083</v>
+        <v>7.5906799999999999</v>
+      </c>
+      <c r="E4">
+        <v>7.4848100000000004</v>
+      </c>
+      <c r="F4">
+        <v>7.4421400000000002</v>
+      </c>
+      <c r="G4">
+        <v>7.8080699999999998</v>
+      </c>
+      <c r="H4">
+        <v>8.1637500000000003</v>
+      </c>
+      <c r="I4">
+        <v>8.3980899999999998</v>
+      </c>
+      <c r="J4">
+        <v>8.5184599999999993</v>
+      </c>
+      <c r="K4">
+        <v>8.5635300000000001</v>
+      </c>
+      <c r="L4">
+        <v>8.7235800000000001</v>
+      </c>
+      <c r="M4">
+        <v>9.0346600000000006</v>
+      </c>
+      <c r="N4">
+        <v>9.1395</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>240</v>
       </c>
       <c r="B5">
-        <v>3.8468</v>
+        <v>15.9703</v>
       </c>
       <c r="C5">
-        <v>7.8309899999999999</v>
+        <v>8.5161599999999993</v>
       </c>
       <c r="D5">
-        <v>15.9703</v>
+        <v>8.2608099999999993</v>
+      </c>
+      <c r="E5">
+        <v>8.1686599999999991</v>
+      </c>
+      <c r="F5">
+        <v>8.1022599999999994</v>
+      </c>
+      <c r="G5">
+        <v>8.5758100000000006</v>
+      </c>
+      <c r="H5">
+        <v>8.8640299999999996</v>
+      </c>
+      <c r="I5">
+        <v>9.1828099999999999</v>
+      </c>
+      <c r="J5">
+        <v>9.1379800000000007</v>
+      </c>
+      <c r="K5">
+        <v>9.2838799999999999</v>
+      </c>
+      <c r="L5">
+        <v>9.8139900000000004</v>
+      </c>
+      <c r="M5">
+        <v>9.8498800000000006</v>
+      </c>
+      <c r="N5">
+        <v>9.8893500000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
       <c r="B6">
-        <v>4.2099799999999998</v>
+        <v>13.897500000000001</v>
       </c>
       <c r="C6">
-        <v>9.0048700000000004</v>
+        <v>9.7369299999999992</v>
       </c>
       <c r="D6">
-        <v>13.897500000000001</v>
+        <v>9.4553999999999991</v>
+      </c>
+      <c r="E6">
+        <v>9.4510299999999994</v>
+      </c>
+      <c r="F6">
+        <v>9.2908399999999993</v>
+      </c>
+      <c r="G6">
+        <v>9.7006999999999994</v>
+      </c>
+      <c r="H6">
+        <v>10.341100000000001</v>
+      </c>
+      <c r="I6">
+        <v>10.4068</v>
+      </c>
+      <c r="J6">
+        <v>10.6074</v>
+      </c>
+      <c r="K6">
+        <v>11.000999999999999</v>
+      </c>
+      <c r="L6">
+        <v>10.898899999999999</v>
+      </c>
+      <c r="M6">
+        <v>11.3085</v>
+      </c>
+      <c r="N6">
+        <v>11.314500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>260</v>
       </c>
       <c r="B7">
-        <v>5.6577999999999999</v>
+        <v>19.4373</v>
       </c>
       <c r="C7">
-        <v>10.432600000000001</v>
+        <v>11.337300000000001</v>
       </c>
       <c r="D7">
-        <v>19.4373</v>
+        <v>11.013999999999999</v>
+      </c>
+      <c r="E7">
+        <v>10.8535</v>
+      </c>
+      <c r="F7">
+        <v>10.799200000000001</v>
+      </c>
+      <c r="G7">
+        <v>10.933400000000001</v>
+      </c>
+      <c r="H7">
+        <v>11.819800000000001</v>
+      </c>
+      <c r="I7">
+        <v>12.2125</v>
+      </c>
+      <c r="J7">
+        <v>12.3353</v>
+      </c>
+      <c r="K7">
+        <v>12.4314</v>
+      </c>
+      <c r="L7">
+        <v>13.086399999999999</v>
+      </c>
+      <c r="M7">
+        <v>13.100099999999999</v>
+      </c>
+      <c r="N7">
+        <v>13.125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>270</v>
       </c>
       <c r="B8">
-        <v>6.1334</v>
+        <v>19.884399999999999</v>
       </c>
       <c r="C8">
-        <v>11.3864</v>
+        <v>12.498200000000001</v>
       </c>
       <c r="D8">
-        <v>19.884399999999999</v>
+        <v>12.007400000000001</v>
+      </c>
+      <c r="E8">
+        <v>11.9716</v>
+      </c>
+      <c r="F8">
+        <v>11.797800000000001</v>
+      </c>
+      <c r="G8">
+        <v>12.1751</v>
+      </c>
+      <c r="H8">
+        <v>12.8293</v>
+      </c>
+      <c r="I8">
+        <v>13.029400000000001</v>
+      </c>
+      <c r="J8">
+        <v>13.216900000000001</v>
+      </c>
+      <c r="K8">
+        <v>13.6267</v>
+      </c>
+      <c r="L8">
+        <v>13.722</v>
+      </c>
+      <c r="M8">
+        <v>14.254300000000001</v>
+      </c>
+      <c r="N8">
+        <v>14.3346</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>280</v>
       </c>
       <c r="B9">
-        <v>6.6315400000000002</v>
+        <v>21.032399999999999</v>
       </c>
       <c r="C9">
-        <v>12.392200000000001</v>
+        <v>13.473599999999999</v>
       </c>
       <c r="D9">
-        <v>21.032399999999999</v>
+        <v>13.068099999999999</v>
+      </c>
+      <c r="E9">
+        <v>12.937799999999999</v>
+      </c>
+      <c r="F9">
+        <v>12.8611</v>
+      </c>
+      <c r="G9">
+        <v>12.8399</v>
+      </c>
+      <c r="H9">
+        <v>14.1676</v>
+      </c>
+      <c r="I9">
+        <v>14.4832</v>
+      </c>
+      <c r="J9">
+        <v>15.0426</v>
+      </c>
+      <c r="K9">
+        <v>15.011200000000001</v>
+      </c>
+      <c r="L9">
+        <v>15.083600000000001</v>
+      </c>
+      <c r="M9">
+        <v>15.066700000000001</v>
+      </c>
+      <c r="N9">
+        <v>15.7315</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>290</v>
       </c>
       <c r="B10">
-        <v>6.5923600000000002</v>
+        <v>21.436199999999999</v>
       </c>
       <c r="C10">
-        <v>13.375</v>
+        <v>14.5404</v>
       </c>
       <c r="D10">
-        <v>21.436199999999999</v>
+        <v>14.267200000000001</v>
+      </c>
+      <c r="E10">
+        <v>14.041600000000001</v>
+      </c>
+      <c r="F10">
+        <v>13.853999999999999</v>
+      </c>
+      <c r="G10">
+        <v>14.5547</v>
+      </c>
+      <c r="H10">
+        <v>15.138999999999999</v>
+      </c>
+      <c r="I10">
+        <v>15.5641</v>
+      </c>
+      <c r="J10">
+        <v>15.9915</v>
+      </c>
+      <c r="K10">
+        <v>15.8855</v>
+      </c>
+      <c r="L10">
+        <v>16.2225</v>
+      </c>
+      <c r="M10">
+        <v>16.805099999999999</v>
+      </c>
+      <c r="N10">
+        <v>16.759899999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>300</v>
       </c>
       <c r="B11">
-        <v>7.7394600000000002</v>
+        <v>30.414100000000001</v>
       </c>
       <c r="C11">
-        <v>15.680099999999999</v>
+        <v>17.041399999999999</v>
       </c>
       <c r="D11">
-        <v>30.414100000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>310</v>
-      </c>
-      <c r="B12">
-        <v>8.3841199999999994</v>
-      </c>
-      <c r="C12">
-        <v>17.084399999999999</v>
-      </c>
-      <c r="D12">
-        <v>30.549499999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>320</v>
-      </c>
-      <c r="B13">
-        <v>9.2797000000000001</v>
-      </c>
-      <c r="C13">
-        <v>18.461500000000001</v>
-      </c>
-      <c r="D13">
-        <v>33.3797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>330</v>
-      </c>
-      <c r="B14">
-        <v>9.8161500000000004</v>
-      </c>
-      <c r="C14">
-        <v>19.734300000000001</v>
-      </c>
-      <c r="D14">
-        <v>38.1128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>340</v>
-      </c>
-      <c r="B15">
-        <v>11.1633</v>
-      </c>
-      <c r="C15">
-        <v>22.3963</v>
-      </c>
-      <c r="D15">
-        <v>36.748199999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>350</v>
-      </c>
-      <c r="B16">
-        <v>12.1486</v>
-      </c>
-      <c r="C16">
-        <v>24.372299999999999</v>
-      </c>
-      <c r="D16">
-        <v>48.053400000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>360</v>
-      </c>
-      <c r="B17">
-        <v>12.9125</v>
-      </c>
-      <c r="C17">
-        <v>29.085899999999999</v>
-      </c>
-      <c r="D17">
-        <v>46.509500000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>370</v>
-      </c>
-      <c r="B18">
-        <v>13.7376</v>
-      </c>
-      <c r="C18">
-        <v>27.904699999999998</v>
-      </c>
-      <c r="D18">
-        <v>48.784199999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>380</v>
-      </c>
-      <c r="B19">
-        <v>15.042</v>
-      </c>
-      <c r="C19">
-        <v>31.062100000000001</v>
-      </c>
-      <c r="D19">
-        <v>54.901499999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>390</v>
-      </c>
-      <c r="B20">
-        <v>16.565899999999999</v>
-      </c>
-      <c r="C20">
-        <v>33.7425</v>
-      </c>
-      <c r="D20">
-        <v>54.764499999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>400</v>
-      </c>
-      <c r="B21">
-        <v>17.754999999999999</v>
-      </c>
-      <c r="C21">
-        <v>36.131799999999998</v>
-      </c>
-      <c r="D21">
-        <v>70.759600000000006</v>
+        <v>16.530899999999999</v>
+      </c>
+      <c r="E11">
+        <v>16.3447</v>
+      </c>
+      <c r="F11">
+        <v>16.254200000000001</v>
+      </c>
+      <c r="G11">
+        <v>16.8002</v>
+      </c>
+      <c r="H11">
+        <v>17.760200000000001</v>
+      </c>
+      <c r="I11">
+        <v>18.094799999999999</v>
+      </c>
+      <c r="J11">
+        <v>18.331299999999999</v>
+      </c>
+      <c r="K11">
+        <v>18.576699999999999</v>
+      </c>
+      <c r="L11">
+        <v>19.010300000000001</v>
+      </c>
+      <c r="M11">
+        <v>19.688800000000001</v>
+      </c>
+      <c r="N11">
+        <v>19.7211</v>
       </c>
     </row>
   </sheetData>
